--- a/data/trans_orig/P64D$andando_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>27843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18879</v>
+        <v>17369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41955</v>
+        <v>41077</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1727939153685236</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1171619382418759</v>
+        <v>0.107788834700873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2603710250253168</v>
+        <v>0.2549243828969199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -762,19 +762,19 @@
         <v>38698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31357</v>
+        <v>30150</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46843</v>
+        <v>46930</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.460439255379509</v>
+        <v>0.4604392553795091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3730947109928731</v>
+        <v>0.3587374692189423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5573477159819893</v>
+        <v>0.5583881097727946</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -783,19 +783,19 @@
         <v>66541</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53367</v>
+        <v>54153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81675</v>
+        <v>82007</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2713958477329539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2176617191168204</v>
+        <v>0.2208702577898518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3331226074863382</v>
+        <v>0.3344768909158999</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2173</v>
+        <v>1990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26586</v>
+        <v>24035</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05388875868484908</v>
+        <v>0.05388875868484906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01348428201282432</v>
+        <v>0.01235040729027453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1649924633265685</v>
+        <v>0.1491618554681529</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>8683</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2076</v>
+        <v>2015</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25125</v>
+        <v>24508</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03541623366899564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008468655623451206</v>
+        <v>0.008220446666712516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.102473821938668</v>
+        <v>0.09995948306123133</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>4402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1379</v>
+        <v>1152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12056</v>
+        <v>10179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0273173306247159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008555726425994588</v>
+        <v>0.007150803215371273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07482150039318371</v>
+        <v>0.06316772483352637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -896,19 +896,19 @@
         <v>4943</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2276</v>
+        <v>2392</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8707</v>
+        <v>8970</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05881301955217932</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0270761998649841</v>
+        <v>0.0284655630779392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1036031366106206</v>
+        <v>0.1067321524096225</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -917,19 +917,19 @@
         <v>9345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4284</v>
+        <v>5044</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16335</v>
+        <v>16806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03811373632792765</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0174741557275707</v>
+        <v>0.02057376832498191</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0666254611256852</v>
+        <v>0.06854406689545776</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6970</v>
+        <v>7588</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01268868249671901</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04325325649118975</v>
+        <v>0.04708943624029207</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6837</v>
+        <v>7386</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00833912962967991</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0278848414196945</v>
+        <v>0.03012393373181399</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>120150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104214</v>
+        <v>104192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>132093</v>
+        <v>132845</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7456439290095926</v>
+        <v>0.7456439290095924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6467432345414098</v>
+        <v>0.6466069804424036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8197618791038767</v>
+        <v>0.824426813403726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1030,19 +1030,19 @@
         <v>34342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26860</v>
+        <v>26844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42089</v>
+        <v>43161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.408614215688017</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3195918119736995</v>
+        <v>0.3193928870010032</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5007822781620818</v>
+        <v>0.5135415127702434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -1051,19 +1051,19 @@
         <v>154492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137495</v>
+        <v>137369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>169579</v>
+        <v>168461</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6301135296766217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5607909048971642</v>
+        <v>0.5602749685565364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6916463024639791</v>
+        <v>0.687087711900307</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>9124</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3993</v>
+        <v>4124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15971</v>
+        <v>16817</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05662135644608885</v>
+        <v>0.05662135644608884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02478216254828838</v>
+        <v>0.02559392733515215</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09911379505061896</v>
+        <v>0.1043641491922033</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1101,19 +1101,19 @@
         <v>15061</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9031</v>
+        <v>9683</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21836</v>
+        <v>21563</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1791974255362026</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1074526296007896</v>
+        <v>0.115215753911427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2598127242863331</v>
+        <v>0.2565581642902313</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -1122,19 +1122,19 @@
         <v>24184</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15811</v>
+        <v>16123</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>34170</v>
+        <v>32906</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09863920131525844</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06448534030319471</v>
+        <v>0.0657606590071257</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1393660806294539</v>
+        <v>0.1342098990552842</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>280881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>247862</v>
+        <v>248599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>312577</v>
+        <v>315487</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2226493560624541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1964756137603411</v>
+        <v>0.1970600913348363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2477740532711653</v>
+        <v>0.2500805089157764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>479</v>
@@ -1176,19 +1176,19 @@
         <v>349011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>323991</v>
+        <v>320387</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>375153</v>
+        <v>375924</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3739847288978208</v>
+        <v>0.3739847288978209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3471744967139308</v>
+        <v>0.3433120921166782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4019973076094781</v>
+        <v>0.4028233866631864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>726</v>
@@ -1197,19 +1197,19 @@
         <v>629892</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>589866</v>
+        <v>587335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>679811</v>
+        <v>674043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2869978221249369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2687607061276158</v>
+        <v>0.2676074728274095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3097423064368647</v>
+        <v>0.3071140691818359</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>19156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10593</v>
+        <v>11229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33285</v>
+        <v>32042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01518440627597951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008396617438773351</v>
+        <v>0.00890095700774988</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02638455453130605</v>
+        <v>0.02539915640515624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1247,19 +1247,19 @@
         <v>8823</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4848</v>
+        <v>4641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15668</v>
+        <v>14719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009453995127904251</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005194986649427579</v>
+        <v>0.004973404682647583</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0167886445682128</v>
+        <v>0.01577214231581868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1268,19 +1268,19 @@
         <v>27978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18514</v>
+        <v>18660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43326</v>
+        <v>43272</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01274781025498752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008435370101538636</v>
+        <v>0.008501937654975745</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01974076158168618</v>
+        <v>0.01971589200864206</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>32077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21808</v>
+        <v>22081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49104</v>
+        <v>47980</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02542656012986897</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01728705138230821</v>
+        <v>0.01750307463826633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03892357940326438</v>
+        <v>0.03803284733568384</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -1318,19 +1318,19 @@
         <v>31825</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23195</v>
+        <v>23446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43188</v>
+        <v>43182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03410263962731151</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02485484175468816</v>
+        <v>0.02512324598910451</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04627883408281996</v>
+        <v>0.04627139301592294</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -1339,19 +1339,19 @@
         <v>63902</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49969</v>
+        <v>48725</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83390</v>
+        <v>82755</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0291156672872811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02276746314999552</v>
+        <v>0.02220076444591012</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03799493767600996</v>
+        <v>0.03770589155509834</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>11956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6366</v>
+        <v>6384</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22171</v>
+        <v>21692</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009477656515073141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00504636551008775</v>
+        <v>0.005060587653549386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01757458095763831</v>
+        <v>0.01719492636426749</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1389,19 +1389,19 @@
         <v>8615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3987</v>
+        <v>3761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17707</v>
+        <v>18162</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009231672535420064</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004272496438753839</v>
+        <v>0.004030162927639407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01897439541687742</v>
+        <v>0.01946107529783696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1410,19 +1410,19 @@
         <v>20572</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12142</v>
+        <v>12462</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33662</v>
+        <v>32366</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009373063045152267</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005532141128778141</v>
+        <v>0.00567825263608661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01533748219724436</v>
+        <v>0.01474702858751502</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>954596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918201</v>
+        <v>918053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>987964</v>
+        <v>987119</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7566912133497066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7278411661325273</v>
+        <v>0.7277244109059763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7831412781796727</v>
+        <v>0.782471672046728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>765</v>
@@ -1460,19 +1460,19 @@
         <v>561874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>535078</v>
+        <v>534850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590770</v>
+        <v>591495</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.602078745219185</v>
+        <v>0.6020787452191851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5733653316178815</v>
+        <v>0.5731214510997189</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6330430285624928</v>
+        <v>0.6338190524820085</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1594</v>
@@ -1481,19 +1481,19 @@
         <v>1516470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1471434</v>
+        <v>1469378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1561041</v>
+        <v>1560295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6909493119559269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6704295341542004</v>
+        <v>0.6694928165988681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7112570370898929</v>
+        <v>0.710917122077495</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>116479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>95052</v>
+        <v>94209</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>139354</v>
+        <v>138789</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09233088337217815</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07534591739062799</v>
+        <v>0.07467772804892929</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1104632832954</v>
+        <v>0.110015601720565</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>133</v>
@@ -1531,19 +1531,19 @@
         <v>114513</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>96559</v>
+        <v>95967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>134997</v>
+        <v>135599</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.122706700746134</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1034685027318823</v>
+        <v>0.1028341086227958</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.144657159260244</v>
+        <v>0.1453016251515515</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>227</v>
@@ -1552,19 +1552,19 @@
         <v>230992</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>200698</v>
+        <v>200183</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>261477</v>
+        <v>264102</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1052468145043832</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09144385034876443</v>
+        <v>0.09120959055653176</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1191369405877157</v>
+        <v>0.1203328377872797</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>118671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98607</v>
+        <v>99006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>138076</v>
+        <v>140248</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2480779555128008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2061335264197582</v>
+        <v>0.2069692117648356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2886425719436539</v>
+        <v>0.293184138755154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -1606,19 +1606,19 @@
         <v>155981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139436</v>
+        <v>137245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>175276</v>
+        <v>172660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3292430299609891</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2943192900322435</v>
+        <v>0.2896953600112064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3699703998625673</v>
+        <v>0.3644495212595644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>339</v>
@@ -1627,19 +1627,19 @@
         <v>274652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248638</v>
+        <v>248061</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303059</v>
+        <v>301390</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2884641249054511</v>
+        <v>0.2884641249054512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2611422553642594</v>
+        <v>0.2605355444452327</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3183003407426014</v>
+        <v>0.3165469080940485</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>10183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5002</v>
+        <v>5365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18519</v>
+        <v>18640</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02128739197155003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01045557742001183</v>
+        <v>0.01121478103732631</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03871295859440004</v>
+        <v>0.0389670880833605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1677,19 +1677,19 @@
         <v>7745</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4074</v>
+        <v>3792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14432</v>
+        <v>14420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01634891810229171</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008598376379199113</v>
+        <v>0.008003625039625617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03046233610605971</v>
+        <v>0.03043830127540194</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1698,19 +1698,19 @@
         <v>17928</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11156</v>
+        <v>10944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27540</v>
+        <v>27254</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01883010300112765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01171719293855336</v>
+        <v>0.01149425984868844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02892501862415393</v>
+        <v>0.02862509247371086</v>
       </c>
     </row>
     <row r="18">
@@ -1727,19 +1727,19 @@
         <v>48059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34414</v>
+        <v>33649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65970</v>
+        <v>64997</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1004654931765549</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07194152943105851</v>
+        <v>0.0703423633198795</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1379074066931984</v>
+        <v>0.1358738410052985</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -1748,19 +1748,19 @@
         <v>25629</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17251</v>
+        <v>18309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34537</v>
+        <v>36724</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05409654823251972</v>
+        <v>0.05409654823251973</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03641279677273218</v>
+        <v>0.03864633421671537</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07290017592474571</v>
+        <v>0.07751761325442676</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>69</v>
@@ -1769,19 +1769,19 @@
         <v>73687</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56353</v>
+        <v>58201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91444</v>
+        <v>95252</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07739320404480897</v>
+        <v>0.07739320404480896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0591865235145247</v>
+        <v>0.06112791077409328</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09604264678403847</v>
+        <v>0.1000426170784114</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>6715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2567</v>
+        <v>2621</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14731</v>
+        <v>14825</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01403834022090175</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005365840580360196</v>
+        <v>0.00547942566618521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03079376457681023</v>
+        <v>0.0309914199743858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1819,19 +1819,19 @@
         <v>4330</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10665</v>
+        <v>11565</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00913946138864493</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002934363497035932</v>
+        <v>0.002938020846808301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02251142144291978</v>
+        <v>0.02441150067287666</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1840,19 +1840,19 @@
         <v>11045</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5407</v>
+        <v>5755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20018</v>
+        <v>19840</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01160075297418656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005678486584380174</v>
+        <v>0.006044522554317995</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02102436807614299</v>
+        <v>0.02083794895009119</v>
       </c>
     </row>
     <row r="20">
@@ -1869,19 +1869,19 @@
         <v>319232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296170</v>
+        <v>293580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>343339</v>
+        <v>340045</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6673435274182788</v>
+        <v>0.6673435274182787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6191323162474057</v>
+        <v>0.61371784032327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7177368514871215</v>
+        <v>0.7108524090500143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>431</v>
@@ -1890,19 +1890,19 @@
         <v>316027</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>298158</v>
+        <v>296453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>333228</v>
+        <v>333949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6670678325595765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6293503097143193</v>
+        <v>0.6257496567389628</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7033745323949987</v>
+        <v>0.7048970426806158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -1911,19 +1911,19 @@
         <v>635259</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>606286</v>
+        <v>606386</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>665214</v>
+        <v>665248</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6672063469950497</v>
+        <v>0.6672063469950495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6367763088767802</v>
+        <v>0.6368814154069863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6986678302702801</v>
+        <v>0.6987034948345383</v>
       </c>
     </row>
     <row r="21">
@@ -1940,19 +1940,19 @@
         <v>31026</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20179</v>
+        <v>20744</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45483</v>
+        <v>43045</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0648592707290182</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04218369113234702</v>
+        <v>0.04336410573081882</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09508117872530733</v>
+        <v>0.08998387152655285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -1961,19 +1961,19 @@
         <v>40884</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30564</v>
+        <v>31246</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51261</v>
+        <v>53322</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08629825009161875</v>
+        <v>0.08629825009161873</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06451436280239299</v>
+        <v>0.06595364306950552</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.108201955301804</v>
+        <v>0.1125525622713034</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -1982,19 +1982,19 @@
         <v>71911</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>57841</v>
+        <v>58116</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88859</v>
+        <v>90659</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07552689172277741</v>
+        <v>0.07552689172277738</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06074930549338729</v>
+        <v>0.06103868628745843</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09332741690318282</v>
+        <v>0.09521876183017464</v>
       </c>
     </row>
     <row r="22">
@@ -2015,19 +2015,19 @@
         <v>427395</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>389524</v>
+        <v>387179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>467215</v>
+        <v>471116</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2248221735486863</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2049007708108198</v>
+        <v>0.203666922341754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.245768149704872</v>
+        <v>0.2478203318437016</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>756</v>
@@ -2036,19 +2036,19 @@
         <v>543690</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>512705</v>
+        <v>509188</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>580710</v>
+        <v>578403</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3646418186317916</v>
+        <v>0.3646418186317917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3438606769724668</v>
+        <v>0.3415021166037661</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.389470296402847</v>
+        <v>0.3879233622300483</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1141</v>
@@ -2057,19 +2057,19 @@
         <v>971085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>914886</v>
+        <v>920325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1027391</v>
+        <v>1027137</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2862816746863491</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2697138823097612</v>
+        <v>0.271317101466962</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3028807726846045</v>
+        <v>0.3028058670853052</v>
       </c>
     </row>
     <row r="23">
@@ -2086,19 +2086,19 @@
         <v>38022</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23626</v>
+        <v>24546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56967</v>
+        <v>56842</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02000076740614405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01242815152062914</v>
+        <v>0.01291173589371783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02996650751012491</v>
+        <v>0.02990068715129201</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -2107,19 +2107,19 @@
         <v>16568</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10481</v>
+        <v>10772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24388</v>
+        <v>25522</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01111187665036027</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007029420912583218</v>
+        <v>0.007224413571873598</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01635645429640307</v>
+        <v>0.01711680555345706</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>49</v>
@@ -2128,19 +2128,19 @@
         <v>54590</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39643</v>
+        <v>39731</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>75607</v>
+        <v>77090</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01609354255806963</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01168711950169072</v>
+        <v>0.01171289212690802</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02228930766161254</v>
+        <v>0.02272649859253491</v>
       </c>
     </row>
     <row r="24">
@@ -2157,19 +2157,19 @@
         <v>84537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63041</v>
+        <v>65642</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>106932</v>
+        <v>106380</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04446904528855788</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03316115601870232</v>
+        <v>0.03452944988112733</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0562493035629166</v>
+        <v>0.05595867145080142</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -2178,19 +2178,19 @@
         <v>62397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49101</v>
+        <v>49332</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77916</v>
+        <v>77988</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0418483400781748</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03293089501465512</v>
+        <v>0.03308615988713518</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05225690607417635</v>
+        <v>0.05230488936003385</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>149</v>
@@ -2199,19 +2199,19 @@
         <v>146934</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>123516</v>
+        <v>122113</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174422</v>
+        <v>173429</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04331708102228266</v>
+        <v>0.04331708102228267</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03641318687791124</v>
+        <v>0.03599948955969463</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05142068161527544</v>
+        <v>0.05112793265250619</v>
       </c>
     </row>
     <row r="25">
@@ -2228,19 +2228,19 @@
         <v>20716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12724</v>
+        <v>12867</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33714</v>
+        <v>33847</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01089744440619631</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006692991445592123</v>
+        <v>0.006768415685170986</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01773474408916664</v>
+        <v>0.01780452423336173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2249,19 +2249,19 @@
         <v>12945</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6476</v>
+        <v>7024</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23284</v>
+        <v>25606</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008682005093158593</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004343131337768994</v>
+        <v>0.004710886992498916</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01561628965751654</v>
+        <v>0.01717356962352055</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2270,19 +2270,19 @@
         <v>33662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23977</v>
+        <v>22272</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48491</v>
+        <v>49176</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009923619913227995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007068454461237178</v>
+        <v>0.006565907269844226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0142955396456215</v>
+        <v>0.01449729224997827</v>
       </c>
     </row>
     <row r="26">
@@ -2299,19 +2299,19 @@
         <v>1393978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1350016</v>
+        <v>1351360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1438048</v>
+        <v>1441424</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7332720605629441</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7101468407104995</v>
+        <v>0.7108538972365795</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7564539394862198</v>
+        <v>0.7582300372653135</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1242</v>
@@ -2320,19 +2320,19 @@
         <v>912243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>875138</v>
+        <v>874893</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>944874</v>
+        <v>945881</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6118231172814523</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5869374457913907</v>
+        <v>0.5867729898106322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6337083744820423</v>
+        <v>0.634383246600743</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2461</v>
@@ -2341,19 +2341,19 @@
         <v>2306222</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2252395</v>
+        <v>2245046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2362773</v>
+        <v>2357489</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6798876347668389</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6640190852688791</v>
+        <v>0.6618528301735854</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6965594308377414</v>
+        <v>0.6950016527163136</v>
       </c>
     </row>
     <row r="27">
@@ -2370,19 +2370,19 @@
         <v>156629</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>131390</v>
+        <v>131029</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>186179</v>
+        <v>185140</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08239133228275936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06911498394810554</v>
+        <v>0.06892511835107071</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09793566385933805</v>
+        <v>0.09738904697564921</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>204</v>
@@ -2391,19 +2391,19 @@
         <v>170458</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>148919</v>
+        <v>146593</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>198629</v>
+        <v>193286</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1143225919492657</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0998772874641755</v>
+        <v>0.09831709409223728</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1332167947252522</v>
+        <v>0.1296332618257502</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>334</v>
@@ -2412,19 +2412,19 @@
         <v>327087</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>295520</v>
+        <v>290585</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>364512</v>
+        <v>363623</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.09642712309480297</v>
+        <v>0.096427123094803</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08712095118959483</v>
+        <v>0.08566616763736212</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1074603963665662</v>
+        <v>0.1071980843136825</v>
       </c>
     </row>
     <row r="28">
